--- a/BAK02D.xlsx
+++ b/BAK02D.xlsx
@@ -538,12 +538,6 @@
     <t>ARNON ROTI MESES 5'S</t>
   </si>
   <si>
-    <t>20129036</t>
-  </si>
-  <si>
-    <t>ARNON ROTI SSR CKLT</t>
-  </si>
-  <si>
     <t>20137768</t>
   </si>
   <si>
@@ -599,6 +593,12 @@
   </si>
   <si>
     <t>MR.BREAD CKLT KCNG</t>
+  </si>
+  <si>
+    <t>20069665</t>
+  </si>
+  <si>
+    <t>MR.BRD KSR CKLT KEJU</t>
   </si>
   <si>
     <t>20070168</t>
@@ -2898,7 +2898,7 @@
         <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -2915,10 +2915,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -2938,7 +2938,7 @@
         <v>51</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -2958,7 +2958,7 @@
         <v>51</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -2978,18 +2978,18 @@
         <v>51</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -2998,10 +2998,10 @@
         <v>51</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>51</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -3038,7 +3038,7 @@
         <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3058,7 +3058,7 @@
         <v>51</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3075,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>

--- a/BAK02D.xlsx
+++ b/BAK02D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="292">
   <si>
     <t/>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>SARI ROTI CKL-STRAWB</t>
+  </si>
+  <si>
+    <t>10018154</t>
+  </si>
+  <si>
+    <t>SARI ROTI TW.CHIP275</t>
   </si>
   <si>
     <t>20003593</t>
@@ -1273,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2095,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -2118,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -2138,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -2158,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -2178,7 +2184,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2198,7 +2204,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2218,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2238,7 +2244,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2258,7 +2264,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -2278,7 +2284,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -2298,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2378,7 +2384,7 @@
         <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2438,7 +2444,7 @@
         <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2498,7 +2504,7 @@
         <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2558,7 +2564,7 @@
         <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -2618,7 +2624,7 @@
         <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -2638,7 +2644,7 @@
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -2678,7 +2684,7 @@
         <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2718,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -2738,7 +2744,7 @@
         <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2755,10 +2761,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2778,7 +2784,7 @@
         <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2798,7 +2804,7 @@
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -2815,10 +2821,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
@@ -2838,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2858,7 +2864,7 @@
         <v>48</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -2878,7 +2884,7 @@
         <v>48</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -2898,7 +2904,7 @@
         <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -2915,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -2938,7 +2944,7 @@
         <v>51</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -2958,7 +2964,7 @@
         <v>51</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -2978,18 +2984,18 @@
         <v>51</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>185</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -2998,10 +3004,10 @@
         <v>51</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,7 +3024,7 @@
         <v>51</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -3038,7 +3044,7 @@
         <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3058,7 +3064,7 @@
         <v>51</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3075,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3095,10 +3101,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -3115,13 +3121,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,13 +3141,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,10 +3161,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3175,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3195,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3235,10 +3241,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -3255,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3275,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3295,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3315,10 +3321,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3335,10 +3341,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3355,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3375,10 +3381,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3386,19 +3392,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3415,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3435,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3455,10 +3461,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3475,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -3495,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3506,19 +3512,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3535,10 +3541,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -3555,10 +3561,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
@@ -3575,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -3595,10 +3601,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3615,10 +3621,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3635,10 +3641,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -3655,10 +3661,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -3675,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -3695,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
@@ -3715,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -3726,19 +3732,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
@@ -3746,19 +3752,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
@@ -3766,19 +3772,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
@@ -3786,19 +3792,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -3806,19 +3812,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -3826,39 +3832,39 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>21</v>
@@ -3875,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>21</v>
@@ -3895,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>21</v>
@@ -3915,12 +3921,32 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>21</v>
       </c>
     </row>
